--- a/medicine/Sexualité et sexologie/Jean-Baptiste_Boyer_d'Argens/Jean-Baptiste_Boyer_d'Argens.xlsx
+++ b/medicine/Sexualité et sexologie/Jean-Baptiste_Boyer_d'Argens/Jean-Baptiste_Boyer_d'Argens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Boyer_d%27Argens</t>
+          <t>Jean-Baptiste_Boyer_d'Argens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Baptiste de Boyer, marquis d’Argens, né à Aix-en-Provence le 27 juin 1703[1], mort au château de La Garde, près de Toulon, le 11 janvier 1771, est un écrivain français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Baptiste de Boyer, marquis d’Argens, né à Aix-en-Provence le 27 juin 1703, mort au château de La Garde, près de Toulon, le 11 janvier 1771, est un écrivain français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Boyer_d%27Argens</t>
+          <t>Jean-Baptiste_Boyer_d'Argens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Pierre-Jean de Boyer, marquis d'Argens, seigneur d'Éguilles et de Joyeuse-Garde (à St-Martin et Mouriès), procureur général au Parlement de Provence, et d'Angélique l'Enfant[2], petit fils de Jean-Baptiste (II) Boyer d'Éguilles, Boyer d’Argens suivit la carrière des armes et eut une jeunesse fort licencieuse. Sa vie sentimentale impétueuse s’est particulièrement orientée vers les actrices de théâtre. Dès l’âge de quinze ans, malgré l’opposition de son père qui le destinait, en tant que fils aîné, à la magistrature, il entra dans l’armée où il resta jusqu’à la trentaine, ce qui poussa son père à le déshériter au profit de son frère cadet, Alexandre Jean-Baptiste de Boyer. Blessé devant Philipsbourg en 1734, il quitta le service et se retira en Hollande, afin d’y écrire librement ses pamphlets - notamment ses Lettres juives, qui lui valurent la célébrité.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Pierre-Jean de Boyer, marquis d'Argens, seigneur d'Éguilles et de Joyeuse-Garde (à St-Martin et Mouriès), procureur général au Parlement de Provence, et d'Angélique l'Enfant, petit fils de Jean-Baptiste (II) Boyer d'Éguilles, Boyer d’Argens suivit la carrière des armes et eut une jeunesse fort licencieuse. Sa vie sentimentale impétueuse s’est particulièrement orientée vers les actrices de théâtre. Dès l’âge de quinze ans, malgré l’opposition de son père qui le destinait, en tant que fils aîné, à la magistrature, il entra dans l’armée où il resta jusqu’à la trentaine, ce qui poussa son père à le déshériter au profit de son frère cadet, Alexandre Jean-Baptiste de Boyer. Blessé devant Philipsbourg en 1734, il quitta le service et se retira en Hollande, afin d’y écrire librement ses pamphlets - notamment ses Lettres juives, qui lui valurent la célébrité.
 Il attira l'attention du roi de Prusse par ses attaques contre le christianisme : ce prince l’appela à sa cour, en fit son chambellan avec 6 000 francs de traitement, et le nomma « Kammerherr » directeur général de son Académie des sciences. Il s’offensa néanmoins de le voir épouser à Berlin le 27 janvier 1749 Babette Cochois, Mademoiselle Barbe Cochois, actrice à l'Opéra de Berlin. Cependant, ce mariage fut très heureux. Ils eurent une fille, Barbe de Boyer d'Argens, née en 1754, dont la naissance fut cachée jusqu'en 1769 par crainte de la réaction de la marquise d'Argens mère, et qui épousa en 1774 Raphaël de Magallon, seigneur du Val d'Ardène, avocat général au Parlement de Provence.
 Après avoir vécu 25 ans dans l’intimité de Frédéric II, le marquis d’Argens revint passer ses dernières années dans sa famille, à Aix. À la mort du marquis, le roi fit ériger un mausolée à sa mémoire dans l’église Notre-Dame de la Seds, à Aix : ce monument est l'œuvre du sculpteur Charles-Antoine Bridan.
 Il avait une instruction vaste et variée, et ses écrits sont inspirés par la philosophie sceptique de l’époque.
-Robert Darnton considère que d’Argens a probablement été l’auteur du roman philosophico-pornographique Thérèse philosophe, ou mémoires pour servir à l’histoire du P. Dirrag et de Mlle Éradice[3].
+Robert Darnton considère que d’Argens a probablement été l’auteur du roman philosophico-pornographique Thérèse philosophe, ou mémoires pour servir à l’histoire du P. Dirrag et de Mlle Éradice.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Boyer_d%27Argens</t>
+          <t>Jean-Baptiste_Boyer_d'Argens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,22 +560,24 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La bibliographie chronologique qui suit est extraite du travail de la bibliothèque de Trèves (Trier/Allemagne) ; cette bibliographie a fait l'objet d'un travail de remaniement assez important. L'adresse du site de la Bibliothèque de l'Université de Trier est donnée ci-dessous en annexes. On s'y reportera, en particulier pour acquérir les nombreux renvois aux adresses électroniques qui permettent de lire les fac-similés. De manière générale, une recherche sur le nom « Boyer d'Argens » sur le site de Gallica permet d'accéder à la plupart des textes en français. On notera l'édition en cours sur Wikisource de quelques textes issus des fac-similés présents sur Gallica.
 1730  Promenades d’Ariste et de Sophie, ou instructions galantes et serieuses pour une jeune demoiselle qui veut entrer dans le monde. Par Monsieur de L**. - Amsterdam: Du Sauzet, 1730. (12), 308 pages.
 1735  Mémoires de Monsieur le Marquis d'Argens: avec quelques lettres sur divers sujets. - Londres: Aux dépens de la Compagnie, 1735. 296 pages (cf. Wikisource : Mémoires et Lettres du marquis d'Argens).
 1735 Mémoires du comte de Vaxere ou le faux rabin. Amsterdam 1735. XII, 282 pages.
 1735-1737  Lettres Juives, ou Lettres d'un Juif en Voyage à Paris à ses Amis en divers Endroits. - La Haye: Pierre Paupie, 1735-1737.
-1736 Les enchainemens de l'amour et de la fortune, ou les Mémoires du Marquis de Vaudreville. - La Haye: Benjamin Gibert, 1736. [14], 245, [3].
+1736 Les enchainemens de l'amour et de la fortune, ou les Mémoires du Marquis de Vaudreville. - La Haye: Benjamin Gibert, 1736. , 245, .
 1736   Histoire du roi de Campanie, et de la princesse parfaite. - Paris, chez la veuve de Louis-Denys Delatour, 1736. (2), 180 pages.
 1736  Histoire du roi de Campagnie, et de la princesse parfaite. Amsterdam: Wetstein &amp; Smith, 1736. 230 pages.
 1736  Mémoires, avec quelques lettres sur divers sujets. - Londres: Aux dépens de la Campagnie [!], 1736. 243 pages.
-1736  Mémoires De La Comtesse De Mirol, Ou Les Funestes Effets De L'Amour Et De La Jalousie : Histoire Piémontoise. - LaHaye: Moetjens, 1736. [8] , 224 S.
-1736  Mémoires De Mademoiselle De Mainville, Ou Le Feint Chevalier. - LaHaye: Paupie, 1736. - [20], 226 pages.
+1736  Mémoires De La Comtesse De Mirol, Ou Les Funestes Effets De L'Amour Et De La Jalousie : Histoire Piémontoise. - LaHaye: Moetjens, 1736.  , 224 S.
+1736  Mémoires De Mademoiselle De Mainville, Ou Le Feint Chevalier. - LaHaye: Paupie, 1736. - , 226 pages.
 1736  Mémoires du marquis de Mirmon, ou le solitaire philosophe, par L. M. D.. - Amsterdam: Wetstein et Smith, 1736. ? 319 pages.: Ill.
-1736   Le Mentor cavalier, ou les illustres infortunez de notre siècle. - A Londres, Aux Dépens de la Compagnie, 1736. - [8], 250, [2] pages.
-1736  Le solitaire philosophe, ou Mémoires de M.. le marquis de Mirmon, par M.. L.M.D. - Amsterdam: Wetstein et Smith, 1736. [6], 262 pages.
+1736   Le Mentor cavalier, ou les illustres infortunez de notre siècle. - A Londres, Aux Dépens de la Compagnie, 1736. - , 250,  pages.
+1736  Le solitaire philosophe, ou Mémoires de M.. le marquis de Mirmon, par M.. L.M.D. - Amsterdam: Wetstein et Smith, 1736. , 262 pages.
 1736  Der philosophische Einsiedler oder besondere Nachrichten des Marggrafen von Mirmon. - Hamburg: Wiering, 1736. 168 pages.
 1736-1737  Lettres juives, ou correspondance philosophique, historique, et critique, entre un juif voyageur à Paris et ses correspondans en divers endroits. - T. 1 -6. La Haye : Pierre Paupie, 1736-1737.
 1736-1737 Lettres juives, ou correspondance philosophique, historique, et critique, entre un juif voyageur à Paris et ses correspondans en divers endroits. - T. 1 -6. Amsterdam: Gautier, 1736-1737.
@@ -569,19 +585,19 @@
 1737  Le fortuné florentin, ou les mémoires du comte della Vallé, par d'Argens. - La Haye: Gallois, 1737. - 255 pages.
 1737 Lettres juives ou correspondance philosophique, historique et critique entre un juif voyageur à Paris et ses correspondans en divers endroits. - T. 4 - 6, La Haye: s.e., 1737.
 1737  Lettres morales et critiques sur les differens états et les diverses occupations, des Hommes. Amsterdam: Le Cène, 1737. (8), 236 pages.
-1737  Mémoires De Monsieur Le Marquis D'Argens: Avec quelques Lettres sur divers Sujets. Seconde Édition. Londres: Aux dépens De La Compagnie, 1737. [4], 312 pages.
-1737   Mémoires Du Comte De Vaxère, Ou Le Faux Rabin. Par L'Auteur Des Lettres Juives. Amsterdam 1737. - [4], XII, 282 pages, [2]: Ill.
+1737  Mémoires De Monsieur Le Marquis D'Argens: Avec quelques Lettres sur divers Sujets. Seconde Édition. Londres: Aux dépens De La Compagnie, 1737. , 312 pages.
+1737   Mémoires Du Comte De Vaxère, Ou Le Faux Rabin. Par L'Auteur Des Lettres Juives. Amsterdam 1737. - , XII, 282 pages, : Ill.
 1737  Le Philosophe amoureux, ou les mémoires du comte de Mommejan, par M.. Le Marquis d'Argens. - La Haye: Moetjens, 1737. 268 pages.
-1737 La philosophie du bon-sens, ou reflexions philosophiques sur l'incertitude des connoissances humaines: à l'usage des Cavaliers et du Beau-Sexe, par le Marquis d'Argens. - Londres: La Compagnie, 1737. - XII, 444, [66] pages.
+1737 La philosophie du bon-sens, ou reflexions philosophiques sur l'incertitude des connoissances humaines: à l'usage des Cavaliers et du Beau-Sexe, par le Marquis d'Argens. - Londres: La Compagnie, 1737. - XII, 444,  pages.
 1737  De Filosofy van het gezondt-verstandt, of filozofise aanmerkingen over de onzekerheid der menschelyke. - Te Londen : voor Rekening van de Compagnie, 1737.
 1737-1738  Lettres Cabalistiques, Ou Correspondance Philosophique, Historique Et Critique, Entre deux Cabalistes, divers Esprits Élémentaires, et le Seigneur Astaroth. - T. 1 - 4: La Haye: Paupie, 1737-1738. 7 Bl., 240 pages.; 7 Bl., 240 pages.; 3 Bl., 240 pages, 7 Bl., 232 pages.
 1737-1748 Mémoires secrets de la république des lettres ou, Le théâtre de la vérité. Par l'auteur des Lettres juives. T. 1 -14. Amsterdam: Desbordes, 1737- 1748. Nachdruck Genève: Slatkine, 1967. 677 pages.
 1738 Lettres de M.. le Marquis d'Argens: avec les réponses servant de supplément à ses Mémoires. - La Haye: [de Hondt], 1738. 118 S.
 1738   Lettres juives, ou, Correspondance philosophique, historique et critique entre un juif voïageur en différens États de l'Europe, et ses correspondans en divers endroits. Nouv. éd. augmentée. de XX nouvelles lettres, de quantité de remarques, et de plusieurs figures. - T. 1 - 6. La Haye: Paupie, 1738.
 1738 Lettres philosophiques et critiques. La Haye : De Hondt, 1738. (2), 324, (8) S.
-1738  La philosophie du bon-sens, ou reflexions philosophiques sur l'incertitude des connoissances humaines à l'usage des Cavaliers et du beau-sexe. London 1738. XII, 444, [66] S.
+1738  La philosophie du bon-sens, ou reflexions philosophiques sur l'incertitude des connoissances humaines à l'usage des Cavaliers et du beau-sexe. London 1738. XII, 444,  S.
 1738-1739 Lettres juives, ou correspondance philosophique, historique, et critique, entre un juif voyageur à Paris et ses correspondans en divers endroits. Nouvelle édition; Augmentée de XX Nouvelles Lettres. T. 1 - 7. Lausanne ; La Haye ; Genève: Bousquet, 1738. T. 7 (1739) Contient un "Supplément, ou, Tome septième des Lettres juives, contenant les XX. nouvelles lettres mises dans la dernière éd. de La Haye... à quoi l'on a ajouté une épître dédicatoire à l'auteur, et une lettre très curieuse, qui ne se trouve pas dans la susdite éd. de La Haye". Texte disponible sur la bibliothèque numérique Gallica.
-1739  Intrigues monastiques ou l'amour encapuchonnée. Nouvelles espagnoles, italiennes et françoises. - La Haye 1739. [6], 256 pages.
+1739  Intrigues monastiques ou l'amour encapuchonnée. Nouvelles espagnoles, italiennes et françoises. - La Haye 1739. , 256 pages.
 1739  Lectures amusantes, ou les délassements de l'esprit. Avec un Discours sur les nouvelles. T. 1 - 2, La Haye: Moetjens, 1739. - 360 pages.: Ill; 379 S.: Ill. Cf. Gallica2
 1739  Le législateur moderne, ou les mémoires du chevalier de Meillcourt. - Amsterdam: Changuion, 1739. - XII, 332 pages.: Ill. (Texte électronique sur Gallica - la bibliothèque numérique: Gallica.
 1739  Mémoires historiques et secrets: concernant les amours des rois de France. - A Paris vis-à-vis le Cheval de Bronze, 1739. VI, 303 pages.
@@ -592,7 +608,7 @@
 1740  Anecdotes vénitiennes et turques, ou Nouveaux mémoires du comte de Bonneval : Depuis son arrivée à Venise jusqu'à son Exil dans l'Isle de Chio, au mois de Mars 1739. Par M.. De Mirone. T. 1 -2, Francfort: Aux dépens de la Compagnie, 1740. (5), 218, 216 pages. Attribution douteuse !
 1740  Histoire des religieux de la Compagnie de Jésus. Contenant ce qui s'est passé dans cet ordre depuis son établissement jusqu'à présent... Tome premier [- quatrième]. A Soleure : chez les libraires associés, 1740. Silvia Berti (Rivista storica italiana 96 (1984), p. 517) attribue la longue préface de 249 pages au premier tome de cette refonte d'un ouvrage généralement attribué au Père Quesnel à d'Argens.
 1740 Lettre de l'auteur des lettres juives et des lettres cablistiques à M.. Eberhard Weisman, professeur en théologie dans l'université de Tubinge. - La Haye: Paupie, 1740. - 40 pages.
-1740 Les nones galantes ou l'amour enbeguiné. - La Haye, Jean Van Es, 1740. [4], 402 S.
+1740 Les nones galantes ou l'amour enbeguiné. - La Haye, Jean Van Es, 1740. , 402 S.
 1740  La philosophie du bon-sens ou réflexions philosophiques sur l'incertitude des connoissances humaines, par Monsieur le marquis D'Argens. Nouv. éd., rev. corr. et augm. d'un Examen critique des remarques de M.. l'abbé d'Olivet... sur la théologie des philosophes grecs. - T. 1 - 2 . La Haye: Pierre Paupie, 1740. XVI, 479 S.: Ill.; VI, 476 S.: Ill.
 1740  Der philosophische Seefahrer, oder Leben und Reisen des Ritters von Meillcourt: welcher nach mancherley Glück- und Unglücks-Fällen... endlich zu einem Könige über 2 unbekannte Völckerschafften erwählet worden. Von dem Marquis von Argens der Englischen Nation zugeeignet. - Berlin: Joh. Pet. Schmid, 1740. 241 pages.
 1740  Den gelukkigen Florentyner of de gedenkschriften van de Graaf della Valle. - Deventer Gerrit Steinfort en Jan de Lat in comp., 1740. (II), 187 pages.
@@ -602,13 +618,13 @@
 1741 Chinese letters. Being a philosophical, historical, and critical correspondence between a Chinese traveller at Paris, and his countrymen in China, Muscovy, Persia and Japan. Translated from the originals into French, by the Marquis d'Argens, author of the Lettres juives, or Jewish spy; and now done into English. - London: D. Browne and R. Hett, 1741. XX, 314 S. Nachdruck: New York [u.a.]: Garland, 1974.
 1742  Anecdotes vénitiennes et turques, ou Nouveaux mémoires du comte de Bonneval,... par M. de Mirone (le Mis d'Argens). T. 1 - 2, Utrecht, J. Broedelet, 1742. Attribution douteuse !
 1742  Lettres juives: ou correspondance philosophique, historique et critique, entre un juif voyageur en differens états de l'Europe et ses correspondans en divers endroits. Nouv. ed. augm. - T. 1 - 6. La Haye: Paupie 1742.
-1743  Reflexions historiques et critiques sur le gout et sur les ouvrages des principaux auteurs anciens et modernes. - Amsterdam: Changuion, 1743. [16], 411 pages.
-1743 Réflexions historiques et critiques sur le goût et sur les ouvrages des principaux auteurs anciens et modernes. - Berlin: Fromery, 1743. [16], 411 pages.(Réimpr.: Genève: Slatkine Repr., 1970 [1971).
+1743  Reflexions historiques et critiques sur le gout et sur les ouvrages des principaux auteurs anciens et modernes. - Amsterdam: Changuion, 1743. , 411 pages.
+1743 Réflexions historiques et critiques sur le goût et sur les ouvrages des principaux auteurs anciens et modernes. - Berlin: Fromery, 1743. , 411 pages.(Réimpr.: Genève: Slatkine Repr., 1970 [1971).
 1743-1748  Mémoires secrets de la république des lettres ou le théatre de la vérité. Jean-Baptiste de Boyer, marquis d'Argens. Par l'auteur des lettres juives. - T. 1 - 7. La Haye: Neaulme, 1743-1748.
 1744   Lettres philosophiques et critiques, par Mademoiselle Co**. Avec les réponses de Monsieur D'Arg***. - La Haye: Hondt, 1744. - 132 [i.e. 332] pages.
 1744  Mémoires pour servir à l'histoire de l'esprit et du cœur. Par Monsieur le Marquis d'Arg*** et par Mademoiselle Cochois.. - La Haye: Hondt, 1744. - 296, 6 pages.
 1744  Mémoires Secrets de La République Des Lettres, ou Le Théatre De La Vérité, par l'Auteur des Lettres juives. - T. 1 - 7, Amsterdam: Néaulme, 1744. 1 (1744), 12, 370 S.; 2 (1744), 383 S.; 3 (1744), 412 S.; 4 (1744), 416 S.; 5 (1744), 350 S.; 6 (1759), 379 pages.
-1744   The jewish spy: being a philosophical, historical and critical correspondence, by letters which lately passed between certain jews in Turkey, Italy, France, transl. from the originals into French by the Marquis d'Argens; and now done into English. - Second edition T. 1 - 5, London: Browne, 1744. - XII, 333, [45] S.: Ill.; XII, 312, [46] S.; XVI, 322, [58] S.; XIX, 317, [32] S.; XXIV, 368, [26] S.
+1744   The jewish spy: being a philosophical, historical and critical correspondence, by letters which lately passed between certain jews in Turkey, Italy, France, transl. from the originals into French by the Marquis d'Argens; and now done into English. - Second edition T. 1 - 5, London: Browne, 1744. - XII, 333,  S.: Ill.; XII, 312,  S.; XVI, 322,  S.; XIX, 317,  S.; XXIV, 368,  S.
 1744  Der Triumph der Tugend oder sonderbahre Begebenheiten und Reisen über Meer der Gräfin von Bressol. - Breßlau &amp; Leipzig: Pietsch, 1744. 576 pages.
 1745  Critique Du Siècle, ou Lettres Sur Divers Sujets. Par l'Auteur des Lettres Juives. T. 1 - 2, La Haye: Paupie, 1745. 240 et 200 pages.
 1745  Mémoires du chevalier de..., par d'Argens. - T. 1 - 2, Londres: s.e., 1745. 161 pages.
@@ -617,7 +633,7 @@
 1745 Sur l'Utilité des Académies et des Sociétés Littéraires, in: Histoire de L'Académie Royale des Sciences et des Belles Lettres de Berlin. Année 1745. Berlin: Haude, 1746, S. 73-78.
 1745  Beurtheilung der Menschen dieser Zeit, oder Briefe über verschiedene Sachen. Hrsg. durch den Verfasser der Lettres juives, cabalistiques und chinoises. - Berlin: Schütz, 1745. 172 pages.
 1745   Die Träume des Ritters de la Marmotte . - Leipzig : Krull, 1745. 61 pages.
-1745-1746 Nouveaux Mémoires, Pour Servir A L'Histoire De L'Esprit Et Du Cœur. Par Monsieur Le Marquis D'Argens, Chambellan De Sa Majesté Le Roi De Prusse, Directeur De L'Académie Roiale Des Sciences Et Des Belles Lettres De Berlin, Et Par Mademoiselle Cochois. - T. 1 - 2, La Haye: Scheurleer, 1745-1746. [6], 305 S., [2]: Ill.; [12], 334 S.
+1745-1746 Nouveaux Mémoires, Pour Servir A L'Histoire De L'Esprit Et Du Cœur. Par Monsieur Le Marquis D'Argens, Chambellan De Sa Majesté Le Roi De Prusse, Directeur De L'Académie Roiale Des Sciences Et Des Belles Lettres De Berlin, Et Par Mademoiselle Cochois. - T. 1 - 2, La Haye: Scheurleer, 1745-1746. , 305 S., : Ill.; , 334 S.
 1746  Critique Du Siècle, Ou Lettres Sur Divers Sujets. T. 1 - 2, La Haye: Paupie, 1746.
 1746  Les enchaînemens de l'amour et de la fortune, ou mémoires du marquis de Vaudreville, par d'Argens. - T. 1 - 2, La Haye: Gibert, 1746. - 222 pages.
 1746  Lettres morales et critiques sur les différens états et les diverses occupations, des hommes. - Amsterdam: Chareau et Du Villard, 1746. (IV), 224 pages.
@@ -651,25 +667,25 @@
 1751 Lettres Chinoises: ou correspondance philosophique, historique et critique, par l'auteur des lettres juives et des lettres cabalistiques. - Nouv. éd., augmentée. - T. 1 - 5. La Haye: Gosse, 1751. - XLVIII, 292 S.; 383 S.; 276 S.; 320 S.; 364 pags.
 1751   Mémoires du comte de Vaxère, ou le faux-rabin, par d'Argens. - T. 1 - 2, Amsterdam: Aux dépens de la Compagnie, 1751. 143, 117 S.
 1751 Jewish letters or, a correspondence philosophical, historical and critical, between a Jew and his correspondents, in different parts'. -- The second edition. - London: J. Fleming, 1751.
-1752  Réflexions critiques sur les différentes écoles de peinture. - Paris: Rollin, Grange et Bauche fils 1752. [4], 3-239, [1], iij, [1] S.
+1752  Réflexions critiques sur les différentes écoles de peinture. - Paris: Rollin, Grange et Bauche fils 1752. , 3-239, , iij,  S.
 1752 The Chinese spy: being a series of letters between a Chinese traveller at Paris, and his countrymen in China, Muscovy, Persia, and Japan: wherein the government, customs, religion, and learning of those several nations are described and compared with the Europeans: with a preface by the Author of The Jewish spy. The second edition. London: J. Whiston and B. White... and J. Woodyer, 1752. XX, 314 S.
-1753 The Jewish spy: being a philosophical, historical and critical correspondence, by letters which lately pass'd between certain Jews in Turkey, Italy, France, etc. Translated from the originals into French by the Marquis D'Argens and now done into English. - T. 1 - 4. Dublin: Oli, Nelson and H. Saunders, 1753. Vol. 1: xviii, [2], 333, [9] S.; v. 2: xviii, 347, [9]S.; v. 3: [6], 346, [10] S.; v. 4: [8], 356, [8] S.
+1753 The Jewish spy: being a philosophical, historical and critical correspondence, by letters which lately pass'd between certain Jews in Turkey, Italy, France, etc. Translated from the originals into French by the Marquis D'Argens and now done into English. - T. 1 - 4. Dublin: Oli, Nelson and H. Saunders, 1753. Vol. 1: xviii, , 333,  S.; v. 2: xviii, 347, S.; v. 3: , 346,  S.; v. 4: , 356,  S.
 1753  Philosophical dissertations on the uncertainty of human knowledge, by the Marquis D'Argens; with some remarks on the theology of the Grecian philosophers; to which is added, Mons. Maupertuis's dissertation upon gravity, etc.... ; translated from the last French edition. - T. 1 - 2. London: J. Wren, 1753.
 1754  Lettres cabalistiques, ou, Correspondance philosophique, historique et critique, entre deux cabalistes: divers esprits élémentaires, et le seigneur Astaroth. -- Nouv. éd., augmentée de nouvelles lettres et de quantité deremarques. - T. 1 - 7. La Haye: S. Paupie, 1754. &gt;&gt;&gt; Google Book Search: Tome 1, Tome 2, Tome 3, Tome 4, Tome 5, Tome 6, Tome 7].
 1754 Lettres Juives, Ou Correspondance Philosophique, Historique et Critique, Entre un Juif Voyageur en différens Etats de L'Europe et ses Correspondans en divers endroits. Nouvelle Édition, Augmentée de nouvelles Lettres et de quantité de remarques. T. 1 - 8, La Haye: Paupie, 1754.
-1754 Mémoires Pour Servir A L'Histoire De L'Esprit Et Du Cœur. Par Monsieur Le Marquis D'Arg*** Chambellan De Sa Majesté Le Roi De Prusse, Directeur De L'Académie Roiale Des Sciences Et Des Belles Lettres De Berlin, Et Par Mademoiselle Cochois. - La Haye: De Hondt, 1754. - [2], 296 S.: Ill.
+1754 Mémoires Pour Servir A L'Histoire De L'Esprit Et Du Cœur. Par Monsieur Le Marquis D'Arg*** Chambellan De Sa Majesté Le Roi De Prusse, Directeur De L'Académie Roiale Des Sciences Et Des Belles Lettres De Berlin, Et Par Mademoiselle Cochois. - La Haye: De Hondt, 1754. - , 296 S.: Ill.
 1754  La Philosophie Du Bon-Sens, Ou Réflexions Philosophiques Sur L'Incertitude Des Connoissances Humaines: À l'usage des Cavaliers [et] du Beau-Sexe. Huitième Édition Corrigée, augmentée de deux Dissertations Morales, sur les Douceurs de la Societé; et sur la vie heureuse; de plusieurs nouvelles notes; Et d'un examen critique des remarques De M.. L'Abbé... Sur la Theologie Des Philosophes Grecs. - T. 1 - 2. Dresde: Walther, 1754.
 1754 Memoirs of the Count du Beauval, including some curious particulars relating to the Dukes of Wharton and Ormond, during their exiles. With anecdotes of several other illustrious and unfortunate noblemen of the present age. London: M. Cooper, 1754. (28), 224 S. [Traduction par Samuel Derrick, ami de Samuel Johnson et de Boswell). (Texte électronique de la Préface de Samuel Derrick (HTML) sur  Gutenberg
 1755 Critique du siecle, ou lettres sur divers sujets, par l'auteur des Lettres juives. Nouvelle édition, augmentee de nouvelles lettres et de... remarques... T. 1 - 2, La Haye: Paupie, 1755. 366 S. ; 344 S. (texte électronique sur Gallica - la bibliothèque numérique: https://gallica.bnf.fr/).
 1755  Histoire de l'esprit et du cœur, par M.. le Marquis d'Arg*** et par Mademoiselle Cochois. - La Haye: de Hondt, 1755. 230 S.
 1755  Lettre de M. le marquis d'Argens, avec la réponse de M. de P***, servant de supplément à ses Mémoires. Londres: aux dépens de la Compagnie, 1755.
 1755  Lettres chinoises, ou, Correspondance philosophique, historique et critique: entre un Chinois voyageur et ses correspondans à la Chine, en Moscovie, en Perse et au Japon. Nouvelle édition, augmentée de nouvelles lettres et de quantité de remarques. - T. 1 - 6. La Haye: Pierre Paupie, 1755.
-1755 Mémoires et lettres de M. le Marquis d'Argens. Londres [i.e. Amsterdam?]: aux dépens de la compagnie, 1755. [2], 312, 48 S.
+1755 Mémoires et lettres de M. le Marquis d'Argens. Londres [i.e. Amsterdam?]: aux dépens de la compagnie, 1755. , 312, 48 S.
 1755 La Philosophie du bon-sens, ou réflexions philosophiques sur l'incertitude des connoissances humaines, Nouv. éd., corr. et augm. d'un Examen critique des remarques de M. l'Abbe d'Olivet, de l'Académie Française .- T. 1 - 3. La Haye: Paupie, 1755.
 1755 La Philosophie Du Bon-Sens, Ou Réflexions Philosophiques Sur L'Incertitude Des Connoissances Humaines: À l'usage des Cavaliers [et] du Beau-Sexe. Huitième Édition Corrigée, augmentée de deux Dissertations Morales, sur les Douceurs de la Societé; et sur la vie heureuse; de plusieurs nouvelles notes; Et d'un examen critique des remarques De M.. L'Abbé... Sur la Theologie Des Philosophes Grecs. - T. 1 - 2. Paris 1755.
 1756 Lettres chinoises ou: correspondance philosophique, historique et critique entre un Chinois voyageur à Paris [et] ses correspondans à la Chine, en Moscovie, en Perse et au Japon. Par l'auteur des lettres juives et des lettres cabalistiques. 5. éd., augmentée de plusieurs additions considerables, de remarques... d'une dissertation sur les disputes littéraires, de plusieurs nouvelles lettres, [et] d'une table des matières. T. 1 - 6. La Haye: Gosse ; Van Daalen, 1756.
 1756  Mémoires du marquis de Mirmon, ou, Le solitaire philosophe, par M. le marquis d'Argens. - Amsterdam: Wetstein et Smith, 1756. (6), 280 S.
-1756 Die Philosophie der gesunden Vernunft oder philosophische Betrachtungen über die Ungewißheit der menschlichen Erkäntniß. Zum Gebrauch vornehmer Standes-Personen beiderlei Geschlechts: Aus dem Französischen des Herrn Marquis von Argens übersetzet. T. 1 - 2. - Breßlau und Leipzig: Pietsch, 1756. (1756). - [11] Bl., 446 S. und [1] Bl., 446 S., [17] Bl.
+1756 Die Philosophie der gesunden Vernunft oder philosophische Betrachtungen über die Ungewißheit der menschlichen Erkäntniß. Zum Gebrauch vornehmer Standes-Personen beiderlei Geschlechts: Aus dem Französischen des Herrn Marquis von Argens übersetzet. T. 1 - 2. - Breßlau und Leipzig: Pietsch, 1756. (1756). -  Bl., 446 S. und  Bl., 446 S.,  Bl.
 1757  Philosophical visions. Translated from the French. - London: R. Griffiths and T. Field, 1757. xxvi, 235 S.
 1757  De standvastige Afrikaansche, en de edelmoedige Spaansche: of De historie van Adelaïde en Elvire [par la Marquise d'Argens]. Rotterdam: J. Tiele &amp; A. Bothall, 1757.
 1759      Istruzioni utili, e necessarie, per tutti coloro, che bramano vivere in buona, ed onesta compagnia, e condurre nel mondo una vita lieta, e felice. Opera ripiena d'eruditi, e piacevoli esempi, ed adatta ad ogni qualunque stato di persone. Del signor marchese D. A. - Venedig: Paolo Colombani, 1759. 144 p.. [Traduction des Réflexions diverses sur les douceurs de la société publiées dans les Mémoires pour servir à l'histoire de l'esprit et du cœur, La Haye: de Hondt, 1744, p. 6-84 et des Réflexions diverses et critiques sur la vie heureuse publiées dans les Mémoires pour servir à l'histoire de l'esprit et du cœur, La Haye: Scheurleer, 1746, t. II, p. 1-97, par D. Cluniani].
@@ -690,8 +706,9 @@
 1764  Déffense du paganisme par l'Empereur Julien: en Grec et en Français ; avec dissertations et des notes pour servir d'eclaircissement au texte et pour en refuter les erreurs. Berlin: Voß, 1764. LXXVI, 306 pages. Disponible sur Gallica2]. En cours d'édition sur Wikilivres.
 1764  Il filosofo innamorato ovvero Le memorie del conte di Mommejan. Tradotte dal francese. Aggiuntevi le avventure dell'amante beffato. T. 1-2. Venezia: Angelo Pasinelli, all'Insegna della Scienza, 1764. VIII, 157, (3) et VIII, 135 (3) pp. .
 1764  Lettres juives, ou Correspondance philosophique, historique et critique, entre un Juif voyageur en differens Etats de l'Europe, et ses correspondans en divers endroits. Nouvelle édition, augmentée de nouvelles lettres et de quantité de remarques. - T. 1 - 8. La Haye: Pierre Paupie, 1764.
-1764  Memoirs of the Count Du Beauval: including some curious particulars relating to the Dukes of Wharton and Ormond during their exiles: with anecdotes of several other illustrious and unfortunate noblemen of the present age. Translated from the French of the Marquis D'Argens... by M.. Derrick. -- London: J. Wren and G. Burnett, 1764. [26], 224 pages.
-1765 Extrait du Dictionnaire historique et critique [par Frédéric II, roi de Prusse, et le Marquis d'Argens, publié par Dieudonné Thiébault]: Divisé en deux</t>
+1764  Memoirs of the Count Du Beauval: including some curious particulars relating to the Dukes of Wharton and Ormond during their exiles: with anecdotes of several other illustrious and unfortunate noblemen of the present age. Translated from the French of the Marquis D'Argens... by M.. Derrick. -- London: J. Wren and G. Burnett, 1764. , 224 pages.
+1765 Extrait du Dictionnaire historique et critique [par Frédéric II, roi de Prusse, et le Marquis d'Argens, publié par Dieudonné Thiébault]: Divisé en deux volumes avec une préface . T. 1 - 2, Berlin: Voss, 1765. VI, 291 S.; 413 S.
+1765  La philosophie du bon-sens, ou Reflexions philosophiq</t>
         </is>
       </c>
     </row>
